--- a/LifeCoaches1.xlsx
+++ b/LifeCoaches1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a884470\empowerbot-env\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401E6FBA-45A8-4141-8D26-DCD8572110DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887BD8EF-6C24-4830-9EA9-A7EE8277B008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6768352E-303B-4918-B96F-29B6A4ACDF69}"/>
   </bookViews>
